--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
@@ -217,10 +217,10 @@
     <t>u_site_name</t>
   </si>
   <si>
-    <t>Select the school name</t>
-  </si>
-  <si>
-    <t>Sélectionner le nom de l'école</t>
+    <t>Select the school village</t>
+  </si>
+  <si>
+    <t>Sélectionner le nom du village</t>
   </si>
   <si>
     <t>Code  trois chiffre affecté  chaque école</t>
@@ -1606,10 +1606,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 4. SCH/STH - Urine Filtration V3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_4_urine_filtration_202110_v3</t>
+    <t>(Octobre 2021) - 4. SCH/STH - Urine Filtration V4</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_4_urine_filtration_202110_v4</t>
   </si>
   <si>
     <t>French</t>
@@ -1620,10 +1620,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1695,9 +1695,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,23 +1725,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1748,15 +1749,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1764,29 +1765,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1800,11 +1778,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1823,24 +1830,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,7 +1897,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,175 +2071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,27 +2153,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,6 +2173,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2210,10 +2203,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2221,148 +2221,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2843,11 +2843,11 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
-    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. For example, TCH0001 for TCHAOUDJO.</t>
+    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. Par exemple: TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
     <t>select_one yesNo</t>
@@ -220,7 +220,7 @@
     <t>Please enter the code from the QR code sticker. The format is the first three letters of the district followed by four digits. For example, TCH0001 for TCHAOUDJO</t>
   </si>
   <si>
-    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple, TCH0001 pour TCHAOUDJO</t>
+    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple: TCH0001 pour TCHAOUDJO</t>
   </si>
   <si>
     <t>${u_barcode_ok} = 'Non'</t>
@@ -1555,10 +1555,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 4. SCH/STH - Urine Filtration V4</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_4_urine_filtration_202110_v4</t>
+    <t>(Octobre 2021) - 4. SCH/STH - Urine Filtration V5</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_4_urine_filtration_202110_v5</t>
   </si>
   <si>
     <t>French</t>
@@ -1569,10 +1569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1644,6 +1644,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1652,31 +1660,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1690,74 +1674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1773,6 +1689,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1788,8 +1771,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,7 +1846,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,7 +1942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,25 +1960,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,133 +2026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,6 +2085,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2096,24 +2129,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,171 +2162,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2791,12 +2791,12 @@
   <sheetPr/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11862,8 +11862,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -310,18 +310,12 @@
     <t>AGOSSOU A. Adolphe  </t>
   </si>
   <si>
-    <t>AKPANLI Komivi  </t>
-  </si>
-  <si>
     <t>AMADOU Moussa </t>
   </si>
   <si>
     <t>ANAGO Espoir  </t>
   </si>
   <si>
-    <t>BADAKI Abalo Charles </t>
-  </si>
-  <si>
     <t>FONVI Akakpo </t>
   </si>
   <si>
@@ -331,6 +325,9 @@
     <t>GNAMEY Judith </t>
   </si>
   <si>
+    <t>HOUNYOVI Ayaovi</t>
+  </si>
+  <si>
     <t>KAMASSA Hélène </t>
   </si>
   <si>
@@ -349,7 +346,10 @@
     <t>NAKOME Bamouni  </t>
   </si>
   <si>
-    <t>PABAKA Kokou  </t>
+    <t>NOUSSOUGNON Kokou</t>
+  </si>
+  <si>
+    <t>SOH Atafembou</t>
   </si>
   <si>
     <t>SOSSOU Efoe Stephane </t>
@@ -1569,9 +1569,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
@@ -1667,8 +1667,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1682,98 +1728,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1790,6 +1746,50 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,19 +1846,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,151 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,6 +1889,144 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,6 +2094,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2105,30 +2114,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2162,138 +2147,153 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2302,10 +2302,10 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3237,10 +3237,10 @@
   <sheetPr/>
   <dimension ref="A1:I435"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11862,7 +11862,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_4_urine_filtration_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${u_district}, 0, 3) = substr(., 0, 3)</t>
+    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${u_district}, 0, 3) = substr(., 0, 3) and ${u_district} != 'KPENDJAL OUEST') or (if(${u_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
   </si>
   <si>
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
@@ -1561,10 +1561,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 4. SCH/STH - Urine Filtration V6</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_4_urine_filtration_202110_v6</t>
+    <t>(Octobre 2021) - 4. SCH/STH - Urine Filtration V6.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_4_urine_filtration_202110_v6_2</t>
   </si>
   <si>
     <t>French</t>
@@ -1575,10 +1575,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1661,19 +1661,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1686,6 +1680,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1694,8 +1704,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1709,8 +1735,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1718,7 +1780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1736,68 +1798,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1852,13 +1852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,13 +1894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,31 +1912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,7 +1936,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +2002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,79 +2032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,47 +2091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2165,6 +2124,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2173,148 +2162,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2800,12 +2800,12 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H6 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="34" t="s">
@@ -11896,8 +11896,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
